--- a/Lab02/Inf735-Lab02_FactTailleFamille.xlsx
+++ b/Lab02/Inf735-Lab02_FactTailleFamille.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27735" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="24">
   <si>
+    <t>CodeProvince</t>
+  </si>
+  <si>
+    <t>NomProvince</t>
+  </si>
+  <si>
+    <t>DescriptionFamille</t>
+  </si>
+  <si>
+    <t>CodeFamille</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -84,18 +96,6 @@
   </si>
   <si>
     <t>Nunavut</t>
-  </si>
-  <si>
-    <t>CodeProvince</t>
-  </si>
-  <si>
-    <t>NomProvince</t>
-  </si>
-  <si>
-    <t>DescriptionFamille</t>
-  </si>
-  <si>
-    <t>CodeFamille</t>
   </si>
 </sst>
 </file>
@@ -137,9 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +424,7 @@
   <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1048576"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,32 +438,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
         <v>58</v>
       </c>
       <c r="E2" s="1">
@@ -470,16 +471,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
         <v>73</v>
       </c>
       <c r="E3" s="1">
@@ -487,16 +488,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
         <v>58</v>
       </c>
       <c r="E4" s="1">
@@ -504,16 +505,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
         <v>73</v>
       </c>
       <c r="E5" s="1">
@@ -521,16 +522,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
         <v>58</v>
       </c>
       <c r="E6" s="1">
@@ -538,16 +539,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
         <v>73</v>
       </c>
       <c r="E7" s="1">
@@ -555,16 +556,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
         <v>779</v>
       </c>
       <c r="E8" s="1">
@@ -572,16 +573,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
         <v>783</v>
       </c>
       <c r="E9" s="1">
@@ -589,16 +590,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
         <v>787</v>
       </c>
       <c r="E10" s="1">
@@ -606,16 +607,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
         <v>791</v>
       </c>
       <c r="E11" s="1">
@@ -623,16 +624,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
         <v>58</v>
       </c>
       <c r="E12" s="1">
@@ -640,16 +641,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
         <v>73</v>
       </c>
       <c r="E13" s="1">
@@ -657,16 +658,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
         <v>779</v>
       </c>
       <c r="E14" s="1">
@@ -674,16 +675,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
         <v>783</v>
       </c>
       <c r="E15" s="1">
@@ -691,16 +692,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
         <v>787</v>
       </c>
       <c r="E16" s="1">
@@ -708,16 +709,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>791</v>
       </c>
       <c r="E17" s="1">
@@ -725,16 +726,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
         <v>779</v>
       </c>
       <c r="E18" s="1">
@@ -742,16 +743,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2">
         <v>783</v>
       </c>
       <c r="E19" s="1">
@@ -759,16 +760,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
         <v>787</v>
       </c>
       <c r="E20" s="1">
@@ -776,16 +777,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
         <v>791</v>
       </c>
       <c r="E21" s="1">
@@ -793,16 +794,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
         <v>779</v>
       </c>
       <c r="E22" s="1">
@@ -810,16 +811,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2">
         <v>783</v>
       </c>
       <c r="E23" s="1">
@@ -827,16 +828,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
         <v>787</v>
       </c>
       <c r="E24" s="1">
@@ -844,16 +845,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
         <v>791</v>
       </c>
       <c r="E25" s="1">
@@ -861,16 +862,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
         <v>779</v>
       </c>
       <c r="E26" s="1">
@@ -878,16 +879,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2">
         <v>783</v>
       </c>
       <c r="E27" s="1">
@@ -895,16 +896,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
         <v>787</v>
       </c>
       <c r="E28" s="1">
@@ -912,16 +913,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
         <v>791</v>
       </c>
       <c r="E29" s="1">
@@ -929,16 +930,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
         <v>779</v>
       </c>
       <c r="E30" s="1">
@@ -946,16 +947,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2">
         <v>783</v>
       </c>
       <c r="E31" s="1">
@@ -963,16 +964,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
         <v>787</v>
       </c>
       <c r="E32" s="1">
@@ -980,16 +981,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="1">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
         <v>791</v>
       </c>
       <c r="E33" s="1">
@@ -997,16 +998,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
         <v>58</v>
       </c>
       <c r="E34" s="1">
@@ -1014,16 +1015,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2">
         <v>73</v>
       </c>
       <c r="E35" s="1">
@@ -1031,16 +1032,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
         <v>779</v>
       </c>
       <c r="E36" s="1">
@@ -1048,16 +1049,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2">
         <v>783</v>
       </c>
       <c r="E37" s="1">
@@ -1065,16 +1066,16 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2">
         <v>787</v>
       </c>
       <c r="E38" s="1">
@@ -1082,16 +1083,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="1">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
         <v>791</v>
       </c>
       <c r="E39" s="1">
@@ -1099,16 +1100,16 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2">
         <v>73</v>
       </c>
       <c r="E40" s="1">
@@ -1116,16 +1117,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
         <v>58</v>
       </c>
       <c r="E41" s="1">
@@ -1133,16 +1134,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2">
         <v>73</v>
       </c>
       <c r="E42" s="1">
@@ -1150,16 +1151,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2">
         <v>58</v>
       </c>
       <c r="E43" s="1">
@@ -1167,16 +1168,16 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2">
         <v>73</v>
       </c>
       <c r="E44" s="1">
@@ -1184,16 +1185,16 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>60</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="1">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2">
         <v>779</v>
       </c>
       <c r="E45" s="1">
@@ -1201,16 +1202,16 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="1">
+        <v>11</v>
+      </c>
+      <c r="D46" s="2">
         <v>783</v>
       </c>
       <c r="E46" s="1">
@@ -1218,16 +1219,16 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>60</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2">
         <v>787</v>
       </c>
       <c r="E47" s="1">
@@ -1235,16 +1236,16 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>60</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="1">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
         <v>791</v>
       </c>
       <c r="E48" s="1">
@@ -1252,16 +1253,16 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2">
         <v>58</v>
       </c>
       <c r="E49" s="1">
@@ -1269,16 +1270,16 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="2">
         <v>73</v>
       </c>
       <c r="E50" s="1">
@@ -1286,16 +1287,16 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2">
         <v>58</v>
       </c>
       <c r="E51" s="1">
@@ -1303,16 +1304,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2">
         <v>73</v>
       </c>
       <c r="E52" s="1">
@@ -1320,16 +1321,16 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1">
+        <v>6</v>
+      </c>
+      <c r="D53" s="2">
         <v>58</v>
       </c>
       <c r="E53" s="1">
@@ -1337,16 +1338,16 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2">
         <v>73</v>
       </c>
       <c r="E54" s="1">
@@ -1354,16 +1355,16 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="1">
+        <v>10</v>
+      </c>
+      <c r="D55" s="2">
         <v>779</v>
       </c>
       <c r="E55" s="1">
@@ -1371,16 +1372,16 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="1">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2">
         <v>783</v>
       </c>
       <c r="E56" s="1">
@@ -1388,16 +1389,16 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>59</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="1">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2">
         <v>787</v>
       </c>
       <c r="E57" s="1">
@@ -1405,16 +1406,16 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="1">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2">
         <v>791</v>
       </c>
       <c r="E58" s="1">
@@ -1422,16 +1423,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>61</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2">
         <v>58</v>
       </c>
       <c r="E59" s="1">
@@ -1439,16 +1440,16 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1">
+        <v>7</v>
+      </c>
+      <c r="D60" s="2">
         <v>73</v>
       </c>
       <c r="E60" s="1">
@@ -1456,16 +1457,16 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>46</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="1">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2">
         <v>779</v>
       </c>
       <c r="E61" s="1">
@@ -1473,16 +1474,16 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="1">
+        <v>10</v>
+      </c>
+      <c r="D62" s="2">
         <v>779</v>
       </c>
       <c r="E62" s="1">
@@ -1490,16 +1491,16 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="1">
+        <v>11</v>
+      </c>
+      <c r="D63" s="2">
         <v>783</v>
       </c>
       <c r="E63" s="1">
@@ -1507,16 +1508,16 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2">
         <v>787</v>
       </c>
       <c r="E64" s="1">
@@ -1524,16 +1525,16 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="1">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2">
         <v>791</v>
       </c>
       <c r="E65" s="1">
@@ -1541,16 +1542,16 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="1">
+        <v>11</v>
+      </c>
+      <c r="D66" s="2">
         <v>783</v>
       </c>
       <c r="E66" s="1">
@@ -1558,16 +1559,16 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="1">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2">
         <v>787</v>
       </c>
       <c r="E67" s="1">
@@ -1575,16 +1576,16 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>46</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="1">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2">
         <v>791</v>
       </c>
       <c r="E68" s="1">
@@ -1592,16 +1593,16 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="1">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2">
         <v>58</v>
       </c>
       <c r="E69" s="1">
@@ -1609,16 +1610,16 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>48</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="1">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2">
         <v>779</v>
       </c>
       <c r="E70" s="1">
@@ -1626,16 +1627,16 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>48</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="1">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2">
         <v>783</v>
       </c>
       <c r="E71" s="1">
@@ -1643,16 +1644,16 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>48</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="1">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2">
         <v>787</v>
       </c>
       <c r="E72" s="1">
@@ -1660,16 +1661,16 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>48</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="1">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2">
         <v>791</v>
       </c>
       <c r="E73" s="1">
@@ -1677,16 +1678,16 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>62</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2">
         <v>58</v>
       </c>
       <c r="E74" s="1">
@@ -1694,16 +1695,16 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>62</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="1">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2">
         <v>73</v>
       </c>
       <c r="E75" s="1">
@@ -1711,16 +1712,16 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>62</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="1">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2">
         <v>779</v>
       </c>
       <c r="E76" s="1">
@@ -1728,16 +1729,16 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="1">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2">
         <v>783</v>
       </c>
       <c r="E77" s="1">
@@ -1745,16 +1746,16 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>62</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="1">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2">
         <v>787</v>
       </c>
       <c r="E78" s="1">
@@ -1762,16 +1763,16 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>62</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="1">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2">
         <v>791</v>
       </c>
       <c r="E79" s="1">
